--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="16230" windowHeight="3030" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="9705" windowHeight="6195" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="TravelInfo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F14"/>
+  <oleSize ref="A1:H19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="405">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -519,9 +519,6 @@
     <t>Friend</t>
   </si>
   <si>
-    <t>21/07/2019</t>
-  </si>
-  <si>
     <t>Malviya Nagar Sunder Nagar D-823</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
     <t>Son</t>
   </si>
   <si>
-    <t>15/03/2019</t>
-  </si>
-  <si>
     <t>Race Course Circle  2</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
     <t>Brother</t>
   </si>
   <si>
-    <t>19/06/2019</t>
-  </si>
-  <si>
     <t>Saheli Marg  1(2)</t>
   </si>
   <si>
@@ -594,9 +585,6 @@
     <t>Sister</t>
   </si>
   <si>
-    <t>14/05/2019</t>
-  </si>
-  <si>
     <t>Rohini NULL C 5/84,Sector 6</t>
   </si>
   <si>
@@ -609,9 +597,6 @@
     <t>Babbleblab</t>
   </si>
   <si>
-    <t>30/07/2019</t>
-  </si>
-  <si>
     <t>Greater Kailash II Block Market M31</t>
   </si>
   <si>
@@ -627,9 +612,6 @@
     <t>Product Management</t>
   </si>
   <si>
-    <t>26/03/2019</t>
-  </si>
-  <si>
     <t>Saket Community Centre 29</t>
   </si>
   <si>
@@ -642,9 +624,6 @@
     <t>Gabspot</t>
   </si>
   <si>
-    <t>22/03/2019</t>
-  </si>
-  <si>
     <t>Borivali West Sarasvati Estate Virajdeep Apartment, Chandavar</t>
   </si>
   <si>
@@ -660,9 +639,6 @@
     <t>Training</t>
   </si>
   <si>
-    <t>16/07/2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Greater Noida  </t>
   </si>
   <si>
@@ -696,12 +672,6 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>ref_name1</t>
-  </si>
-  <si>
-    <t>ref_name2</t>
-  </si>
-  <si>
     <t>ref_contact1</t>
   </si>
   <si>
@@ -756,12 +726,6 @@
     <t>Business</t>
   </si>
   <si>
-    <t>Kessie     Allotey</t>
-  </si>
-  <si>
-    <t>Ebo     Afriyie</t>
-  </si>
-  <si>
     <t>+233-24 222 3344</t>
   </si>
   <si>
@@ -807,12 +771,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Kojo     Amankwah</t>
-  </si>
-  <si>
-    <t>Efia (F)     Agbemabiase</t>
-  </si>
-  <si>
     <t>8 John Wall Way, Ashaiman</t>
   </si>
   <si>
@@ -849,12 +807,6 @@
     <t>Air</t>
   </si>
   <si>
-    <t>Koko     Amartey</t>
-  </si>
-  <si>
-    <t>Efua     Aggrey</t>
-  </si>
-  <si>
     <t>0605 Talisman Parkway, Sunyani</t>
   </si>
   <si>
@@ -888,12 +840,6 @@
     <t xml:space="preserve"> visit Familly</t>
   </si>
   <si>
-    <t>Kontar     Amihere</t>
-  </si>
-  <si>
-    <t>Ekua     Agyapong</t>
-  </si>
-  <si>
     <t>1 Buena Vista Plaza, Tamale</t>
   </si>
   <si>
@@ -921,12 +867,6 @@
     <t>AGD76334</t>
   </si>
   <si>
-    <t>Kpodo     Amissah</t>
-  </si>
-  <si>
-    <t>Enyonyam     Agyei</t>
-  </si>
-  <si>
     <t>0 Troy Lane, Cape Coast</t>
   </si>
   <si>
@@ -954,12 +894,6 @@
     <t>BGD76335</t>
   </si>
   <si>
-    <t>Kukua     Ammah</t>
-  </si>
-  <si>
-    <t>Esi (Su)     Agyekum</t>
-  </si>
-  <si>
     <t>1041 Dennis Terrace, Obuasi</t>
   </si>
   <si>
@@ -987,12 +921,6 @@
     <t>AGD76335</t>
   </si>
   <si>
-    <t>Kunto     Amoah</t>
-  </si>
-  <si>
-    <t>Esinam     Agyeman</t>
-  </si>
-  <si>
     <t>5730 Novick Circle, Teshie</t>
   </si>
   <si>
@@ -1020,12 +948,6 @@
     <t>BGD76336</t>
   </si>
   <si>
-    <t>Mama     Amoako</t>
-  </si>
-  <si>
-    <t>Gyamfua     Agyemang</t>
-  </si>
-  <si>
     <t>1161 Artisan Street, Tema</t>
   </si>
   <si>
@@ -1050,12 +972,6 @@
     <t>AGD76336</t>
   </si>
   <si>
-    <t>Mansa     Amodako</t>
-  </si>
-  <si>
-    <t>Gzifa     Ahwoi</t>
-  </si>
-  <si>
     <t>640 Old Shore Center, Madina</t>
   </si>
   <si>
@@ -1077,12 +993,6 @@
     <t>BGD76337</t>
   </si>
   <si>
-    <t>Mawunyaga     Ampofo</t>
-  </si>
-  <si>
-    <t>Hola     Aidoo</t>
-  </si>
-  <si>
     <t>4 Bowman Terrace, Koforidua</t>
   </si>
   <si>
@@ -1107,12 +1017,6 @@
     <t>AGD76337</t>
   </si>
   <si>
-    <t>Abla (Tu)     Abeasi</t>
-  </si>
-  <si>
-    <t>Juba (M)     Ak-Amenya</t>
-  </si>
-  <si>
     <t>0 Sutherland Drive, Wa</t>
   </si>
   <si>
@@ -1140,12 +1044,6 @@
     <t>Visit Family</t>
   </si>
   <si>
-    <t>Adjoa     Aboagye</t>
-  </si>
-  <si>
-    <t>Kafui     Akoto</t>
-  </si>
-  <si>
     <t>03 Forest Run Lane, Aflao</t>
   </si>
   <si>
@@ -1174,15 +1072,179 @@
   </si>
   <si>
     <t>Multiple entry(6 months) visa Rs.17000.0</t>
+  </si>
+  <si>
+    <t>ref_Fname1</t>
+  </si>
+  <si>
+    <t>ref_Lname1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kessie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kojo   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koko     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontar     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpodo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kukua     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunto     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mama     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansa    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mawunyaga     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abla (Tu)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjoa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Allotey</t>
+  </si>
+  <si>
+    <t>Amankwah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amartey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amihere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amissah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ammah</t>
+  </si>
+  <si>
+    <t>Amoah</t>
+  </si>
+  <si>
+    <t>Amoako</t>
+  </si>
+  <si>
+    <t>Amodako</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ampofo</t>
+  </si>
+  <si>
+    <t>Abeasi</t>
+  </si>
+  <si>
+    <t>Aboagye</t>
+  </si>
+  <si>
+    <t>ref_Fname2</t>
+  </si>
+  <si>
+    <t>ref_Lname2</t>
+  </si>
+  <si>
+    <t>Ebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efia (F) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enyonyam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esi (Su) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esinam    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyamfua   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gzifa </t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juba (M)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafui    </t>
+  </si>
+  <si>
+    <t>Afriyie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agbemabiase</t>
+  </si>
+  <si>
+    <t>Aggrey</t>
+  </si>
+  <si>
+    <t>Agyapong</t>
+  </si>
+  <si>
+    <t>Agyei</t>
+  </si>
+  <si>
+    <t>Agyekum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agyeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agyemang</t>
+  </si>
+  <si>
+    <t>Ahwoi</t>
+  </si>
+  <si>
+    <t>Aidoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ak-Amenya</t>
+  </si>
+  <si>
+    <t>Akoto</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1228,22 +1290,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1549,7 +1609,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,21 +1943,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1913,8 +1973,8 @@
       <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>379</v>
+      <c r="E1" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="F1" t="s">
         <v>39</v>
@@ -1931,7 +1991,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -1942,7 +2002,7 @@
       <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <v>666141001</v>
       </c>
       <c r="F2" t="s">
@@ -1960,7 +2020,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1971,7 +2031,7 @@
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>666141002</v>
       </c>
       <c r="F3" t="s">
@@ -1989,7 +2049,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -2000,7 +2060,7 @@
       <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>666141003</v>
       </c>
       <c r="F4" t="s">
@@ -2013,12 +2073,12 @@
         <v>42</v>
       </c>
       <c r="I4" s="3">
-        <v>38452</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2029,7 +2089,7 @@
       <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>666141004</v>
       </c>
       <c r="F5" t="s">
@@ -2047,7 +2107,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -2058,7 +2118,7 @@
       <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>666141005</v>
       </c>
       <c r="F6" t="s">
@@ -2071,12 +2131,12 @@
         <v>44</v>
       </c>
       <c r="I6" s="3">
-        <v>41729</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -2087,7 +2147,7 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>666141006</v>
       </c>
       <c r="F7" t="s">
@@ -2105,7 +2165,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2116,7 +2176,7 @@
       <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>666141007</v>
       </c>
       <c r="F8" t="s">
@@ -2134,7 +2194,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -2145,7 +2205,7 @@
       <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
         <v>666141008</v>
       </c>
       <c r="F9" t="s">
@@ -2158,12 +2218,12 @@
         <v>47</v>
       </c>
       <c r="I9" s="3">
-        <v>43098</v>
+        <v>46750</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -2174,7 +2234,7 @@
       <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>666141009</v>
       </c>
       <c r="F10" t="s">
@@ -2187,12 +2247,12 @@
         <v>48</v>
       </c>
       <c r="I10" s="3">
-        <v>40224</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -2203,7 +2263,7 @@
       <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <v>666141010</v>
       </c>
       <c r="F11" t="s">
@@ -2221,7 +2281,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -2232,7 +2292,7 @@
       <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="10">
         <v>666141011</v>
       </c>
       <c r="F12" t="s">
@@ -2245,12 +2305,12 @@
         <v>50</v>
       </c>
       <c r="I12" s="3">
-        <v>43080</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -2261,7 +2321,7 @@
       <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <v>666141012</v>
       </c>
       <c r="F13" t="s">
@@ -2289,24 +2349,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -2350,7 +2412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30001</v>
       </c>
@@ -2394,7 +2456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30002</v>
       </c>
@@ -2438,7 +2500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30003</v>
       </c>
@@ -2482,7 +2544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30004</v>
       </c>
@@ -2526,7 +2588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30005</v>
       </c>
@@ -2570,7 +2632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30006</v>
       </c>
@@ -2614,7 +2676,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30007</v>
       </c>
@@ -2658,7 +2720,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30008</v>
       </c>
@@ -2702,7 +2764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30009</v>
       </c>
@@ -2746,7 +2808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30010</v>
       </c>
@@ -2790,7 +2852,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30011</v>
       </c>
@@ -2834,7 +2896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30012</v>
       </c>
@@ -2894,6 +2956,7 @@
     <hyperlink ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2902,7 +2965,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,8 +2973,10 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2927,7 +2992,7 @@
       <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>148</v>
       </c>
       <c r="F1" t="s">
@@ -2945,7 +3010,7 @@
       <c r="J1" t="s">
         <v>151</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>152</v>
       </c>
       <c r="L1" t="s">
@@ -2957,7 +3022,7 @@
       <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2971,10 +3036,10 @@
       <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>9958474648</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>9779900918</v>
       </c>
       <c r="F2" t="s">
@@ -2992,7 +3057,7 @@
       <c r="J2" t="s">
         <v>159</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>110027</v>
       </c>
       <c r="L2" t="s">
@@ -3004,7 +3069,7 @@
       <c r="N2" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="9">
         <v>43527</v>
       </c>
     </row>
@@ -3021,7 +3086,7 @@
       <c r="D3">
         <v>9983066655</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>9920339880</v>
       </c>
       <c r="F3" t="s">
@@ -3039,7 +3104,7 @@
       <c r="J3" t="s">
         <v>165</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>110028</v>
       </c>
       <c r="L3" t="s">
@@ -3051,8 +3116,8 @@
       <c r="N3" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>166</v>
+      <c r="O3" s="9">
+        <v>43667</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3060,7 +3125,7 @@
         <v>30003</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>111</v>
@@ -3068,25 +3133,25 @@
       <c r="D4">
         <v>9351555617</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>9820325424</v>
       </c>
       <c r="F4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" t="s">
         <v>168</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>169</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>170</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>171</v>
       </c>
-      <c r="J4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>110029</v>
       </c>
       <c r="L4" t="s">
@@ -3098,8 +3163,8 @@
       <c r="N4" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>173</v>
+      <c r="O4" s="9">
+        <v>43539</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3107,7 +3172,7 @@
         <v>30004</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -3115,25 +3180,25 @@
       <c r="D5">
         <v>9408108155</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>9314406878</v>
       </c>
       <c r="F5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
         <v>175</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>176</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>177</v>
       </c>
-      <c r="I5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>110030</v>
       </c>
       <c r="L5" t="s">
@@ -3145,7 +3210,7 @@
       <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="9">
         <v>43712</v>
       </c>
     </row>
@@ -3154,7 +3219,7 @@
         <v>30005</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>115</v>
@@ -3162,11 +3227,11 @@
       <c r="D6">
         <v>9829439781</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>9352628478</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
         <v>156</v>
@@ -3175,12 +3240,12 @@
         <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
-      </c>
-      <c r="K6">
+        <v>181</v>
+      </c>
+      <c r="K6" s="7">
         <v>110031</v>
       </c>
       <c r="L6" t="s">
@@ -3192,8 +3257,8 @@
       <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>184</v>
+      <c r="O6" s="9">
+        <v>43635</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3201,7 +3266,7 @@
         <v>30006</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -3209,25 +3274,25 @@
       <c r="D7">
         <v>9829041206</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>8885586288</v>
       </c>
       <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" t="s">
         <v>186</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>187</v>
       </c>
-      <c r="H7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>110032</v>
       </c>
       <c r="L7" t="s">
@@ -3239,8 +3304,8 @@
       <c r="N7" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>191</v>
+      <c r="O7" s="9">
+        <v>43599</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3248,7 +3313,7 @@
         <v>30007</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
@@ -3256,25 +3321,25 @@
       <c r="D8">
         <v>9810001412</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>9214555405</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8">
+        <v>181</v>
+      </c>
+      <c r="K8" s="7">
         <v>110033</v>
       </c>
       <c r="L8" t="s">
@@ -3286,8 +3351,8 @@
       <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>196</v>
+      <c r="O8" s="9">
+        <v>43676</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3295,7 +3360,7 @@
         <v>30008</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
@@ -3303,25 +3368,25 @@
       <c r="D9">
         <v>9810925170</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>9828046461</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J9" t="s">
         <v>159</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>110034</v>
       </c>
       <c r="L9" t="s">
@@ -3333,8 +3398,8 @@
       <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>202</v>
+      <c r="O9" s="9">
+        <v>43550</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3342,7 +3407,7 @@
         <v>30009</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -3350,25 +3415,25 @@
       <c r="D10">
         <v>9910019454</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>9198168727</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J10" t="s">
         <v>165</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>110035</v>
       </c>
       <c r="L10" t="s">
@@ -3380,8 +3445,8 @@
       <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>207</v>
+      <c r="O10" s="9">
+        <v>43546</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3389,7 +3454,7 @@
         <v>30010</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
@@ -3397,25 +3462,25 @@
       <c r="D11">
         <v>9820780846</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>9891451786</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7">
         <v>110036</v>
       </c>
       <c r="L11" t="s">
@@ -3427,8 +3492,8 @@
       <c r="N11" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>213</v>
+      <c r="O11" s="9">
+        <v>43662</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3436,7 +3501,7 @@
         <v>30011</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -3444,25 +3509,25 @@
       <c r="D12">
         <v>8130191228</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>9869045207</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12">
+        <v>177</v>
+      </c>
+      <c r="K12" s="7">
         <v>110037</v>
       </c>
       <c r="L12" t="s">
@@ -3474,7 +3539,7 @@
       <c r="N12" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>43685</v>
       </c>
     </row>
@@ -3483,7 +3548,7 @@
         <v>30012</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -3491,25 +3556,25 @@
       <c r="D13">
         <v>9967211333</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>9313618617</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I13" t="s">
         <v>164</v>
       </c>
       <c r="J13" t="s">
-        <v>183</v>
-      </c>
-      <c r="K13">
+        <v>181</v>
+      </c>
+      <c r="K13" s="7">
         <v>110038</v>
       </c>
       <c r="L13" t="s">
@@ -3521,26 +3586,32 @@
       <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="9">
         <v>43470</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -3548,918 +3619,996 @@
         <v>89</v>
       </c>
       <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" t="s">
+      <c r="R1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" t="s">
+      <c r="S1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>226</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>227</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
         <v>230</v>
       </c>
-      <c r="M1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>235</v>
-      </c>
-      <c r="R1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S1" t="s">
-        <v>237</v>
-      </c>
-      <c r="T1" t="s">
-        <v>238</v>
-      </c>
-      <c r="U1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V1" t="s">
-        <v>240</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
         <v>242</v>
       </c>
-      <c r="E2" t="s">
+      <c r="V2" t="s">
         <v>243</v>
       </c>
-      <c r="F2" t="s">
+      <c r="W2" t="s">
         <v>244</v>
       </c>
-      <c r="G2" t="s">
+      <c r="X2" t="s">
         <v>245</v>
       </c>
-      <c r="H2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K2" t="s">
-        <v>248</v>
-      </c>
-      <c r="L2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" t="s">
-        <v>251</v>
-      </c>
-      <c r="O2" t="s">
-        <v>252</v>
-      </c>
-      <c r="P2" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>254</v>
-      </c>
-      <c r="T2" t="s">
-        <v>255</v>
-      </c>
-      <c r="U2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V2" t="s">
-        <v>257</v>
-      </c>
-      <c r="W2" s="5">
+      <c r="Y2" s="5">
         <v>43572</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>403</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>392</v>
       </c>
       <c r="K3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L3" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="M3" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="N3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="P3" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="Q3" t="s">
+        <v>254</v>
+      </c>
+      <c r="R3" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" t="s">
         <v>24</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>24</v>
       </c>
-      <c r="S3" t="s">
-        <v>270</v>
-      </c>
-      <c r="T3" t="s">
-        <v>271</v>
-      </c>
       <c r="U3" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="V3" t="s">
         <v>257</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" t="s">
+        <v>258</v>
+      </c>
+      <c r="X3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y3" s="5">
         <v>43573</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J4" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" t="s">
+        <v>262</v>
+      </c>
+      <c r="N4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>266</v>
+      </c>
+      <c r="R4" t="s">
+        <v>267</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>268</v>
+      </c>
+      <c r="V4" t="s">
+        <v>269</v>
+      </c>
+      <c r="W4" t="s">
         <v>244</v>
       </c>
-      <c r="G4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K4" t="s">
-        <v>278</v>
-      </c>
-      <c r="L4" t="s">
-        <v>279</v>
-      </c>
-      <c r="M4" t="s">
-        <v>280</v>
-      </c>
-      <c r="N4" t="s">
-        <v>281</v>
-      </c>
-      <c r="O4" t="s">
-        <v>282</v>
-      </c>
-      <c r="P4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" t="s">
-        <v>284</v>
-      </c>
-      <c r="T4" t="s">
-        <v>285</v>
-      </c>
-      <c r="U4" t="s">
-        <v>256</v>
-      </c>
-      <c r="V4" t="s">
-        <v>257</v>
-      </c>
-      <c r="W4" s="5">
+      <c r="X4" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y4" s="5">
         <v>43574</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>403</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>382</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="K5" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="L5" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="M5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="N5" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="O5" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="P5" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="Q5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R5" t="s">
+        <v>277</v>
+      </c>
+      <c r="S5" t="s">
         <v>24</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>24</v>
       </c>
-      <c r="S5" t="s">
-        <v>296</v>
-      </c>
-      <c r="T5" t="s">
-        <v>297</v>
-      </c>
       <c r="U5" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="V5" t="s">
-        <v>257</v>
-      </c>
-      <c r="W5" s="5">
+        <v>279</v>
+      </c>
+      <c r="W5" t="s">
+        <v>244</v>
+      </c>
+      <c r="X5" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y5" s="5">
         <v>43575</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="H6" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>383</v>
       </c>
       <c r="J6" t="s">
-        <v>247</v>
+        <v>395</v>
       </c>
       <c r="K6" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="L6" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="M6" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="N6" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="O6" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P6" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="Q6" t="s">
+        <v>255</v>
+      </c>
+      <c r="R6" t="s">
+        <v>286</v>
+      </c>
+      <c r="S6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>24</v>
       </c>
-      <c r="S6" t="s">
-        <v>307</v>
-      </c>
-      <c r="T6" t="s">
-        <v>308</v>
-      </c>
       <c r="U6" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="V6" t="s">
-        <v>257</v>
-      </c>
-      <c r="W6" s="5">
+        <v>288</v>
+      </c>
+      <c r="W6" t="s">
+        <v>244</v>
+      </c>
+      <c r="X6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y6" s="5">
         <v>43576</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>403</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" t="s">
+        <v>291</v>
+      </c>
+      <c r="N7" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>267</v>
+      </c>
+      <c r="R7" t="s">
+        <v>295</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>296</v>
+      </c>
+      <c r="V7" t="s">
+        <v>297</v>
+      </c>
+      <c r="W7" t="s">
         <v>244</v>
       </c>
-      <c r="G7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H7" t="s">
-        <v>312</v>
-      </c>
-      <c r="I7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M7" t="s">
-        <v>315</v>
-      </c>
-      <c r="N7" t="s">
-        <v>316</v>
-      </c>
-      <c r="O7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" t="s">
-        <v>318</v>
-      </c>
-      <c r="T7" t="s">
-        <v>319</v>
-      </c>
-      <c r="U7" t="s">
-        <v>256</v>
-      </c>
-      <c r="V7" t="s">
-        <v>257</v>
-      </c>
-      <c r="W7" s="5">
+      <c r="X7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y7" s="5">
         <v>43577</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
+        <v>298</v>
+      </c>
+      <c r="C8" t="s">
+        <v>404</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="I8" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>397</v>
       </c>
       <c r="K8" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="L8" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="M8" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P8" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="Q8" t="s">
+        <v>277</v>
+      </c>
+      <c r="R8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S8" t="s">
         <v>24</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>24</v>
       </c>
-      <c r="S8" t="s">
-        <v>329</v>
-      </c>
-      <c r="T8" t="s">
-        <v>330</v>
-      </c>
       <c r="U8" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="V8" t="s">
-        <v>257</v>
-      </c>
-      <c r="W8" s="5">
+        <v>306</v>
+      </c>
+      <c r="W8" t="s">
+        <v>244</v>
+      </c>
+      <c r="X8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y8" s="5">
         <v>43578</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="C9" t="s">
+        <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I9" t="s">
+        <v>386</v>
+      </c>
+      <c r="J9" t="s">
+        <v>398</v>
+      </c>
+      <c r="K9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M9" t="s">
+        <v>309</v>
+      </c>
+      <c r="N9" t="s">
+        <v>310</v>
+      </c>
+      <c r="O9" t="s">
+        <v>311</v>
+      </c>
+      <c r="P9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R9" t="s">
+        <v>240</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>313</v>
+      </c>
+      <c r="V9" t="s">
+        <v>314</v>
+      </c>
+      <c r="W9" t="s">
         <v>244</v>
       </c>
-      <c r="G9" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" t="s">
-        <v>334</v>
-      </c>
-      <c r="I9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J9" t="s">
-        <v>247</v>
-      </c>
-      <c r="K9" t="s">
-        <v>335</v>
-      </c>
-      <c r="L9" t="s">
-        <v>336</v>
-      </c>
-      <c r="M9" t="s">
-        <v>337</v>
-      </c>
-      <c r="N9" t="s">
-        <v>338</v>
-      </c>
-      <c r="O9" t="s">
-        <v>306</v>
-      </c>
-      <c r="P9" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" t="s">
-        <v>339</v>
-      </c>
-      <c r="T9" t="s">
-        <v>340</v>
-      </c>
-      <c r="U9" t="s">
-        <v>256</v>
-      </c>
-      <c r="V9" t="s">
-        <v>257</v>
-      </c>
-      <c r="W9" s="5">
+      <c r="X9" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y9" s="5">
         <v>43600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="H10" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="J10" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="K10" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="L10" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="M10" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="N10" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="O10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P10" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="Q10" t="s">
+        <v>295</v>
+      </c>
+      <c r="R10" t="s">
+        <v>254</v>
+      </c>
+      <c r="S10" t="s">
         <v>24</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>24</v>
       </c>
-      <c r="S10" t="s">
-        <v>271</v>
-      </c>
-      <c r="T10" t="s">
-        <v>349</v>
-      </c>
       <c r="U10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V10" t="s">
-        <v>257</v>
-      </c>
-      <c r="W10" s="5">
+        <v>321</v>
+      </c>
+      <c r="W10" t="s">
+        <v>244</v>
+      </c>
+      <c r="X10" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y10" s="5">
         <v>43632</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
+        <v>322</v>
+      </c>
+      <c r="C11" t="s">
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H11" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>388</v>
       </c>
       <c r="J11" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>354</v>
+        <v>235</v>
       </c>
       <c r="L11" t="s">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="M11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="N11" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="O11" t="s">
+        <v>326</v>
+      </c>
+      <c r="P11" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>304</v>
+      </c>
+      <c r="R11" t="s">
+        <v>266</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" t="s">
         <v>328</v>
       </c>
-      <c r="P11" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" t="s">
-        <v>358</v>
-      </c>
-      <c r="T11" t="s">
-        <v>359</v>
-      </c>
-      <c r="U11" t="s">
-        <v>256</v>
-      </c>
       <c r="V11" t="s">
-        <v>257</v>
-      </c>
-      <c r="W11" s="5">
+        <v>329</v>
+      </c>
+      <c r="W11" t="s">
+        <v>244</v>
+      </c>
+      <c r="X11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y11" s="5">
         <v>43664</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" t="s">
+        <v>235</v>
+      </c>
+      <c r="M12" t="s">
+        <v>332</v>
+      </c>
+      <c r="N12" t="s">
+        <v>333</v>
+      </c>
+      <c r="O12" t="s">
+        <v>334</v>
+      </c>
+      <c r="P12" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>240</v>
+      </c>
+      <c r="R12" t="s">
+        <v>241</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" t="s">
+        <v>336</v>
+      </c>
+      <c r="V12" t="s">
+        <v>337</v>
+      </c>
+      <c r="W12" t="s">
         <v>244</v>
       </c>
-      <c r="G12" t="s">
-        <v>362</v>
-      </c>
-      <c r="H12" t="s">
-        <v>363</v>
-      </c>
-      <c r="I12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K12" t="s">
-        <v>364</v>
-      </c>
-      <c r="L12" t="s">
-        <v>365</v>
-      </c>
-      <c r="M12" t="s">
-        <v>366</v>
-      </c>
-      <c r="N12" t="s">
-        <v>367</v>
-      </c>
-      <c r="O12" t="s">
-        <v>252</v>
-      </c>
-      <c r="P12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" t="s">
-        <v>368</v>
-      </c>
-      <c r="T12" t="s">
-        <v>369</v>
-      </c>
-      <c r="U12" t="s">
-        <v>256</v>
-      </c>
-      <c r="V12" t="s">
-        <v>257</v>
-      </c>
-      <c r="W12" s="5">
+      <c r="X12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y12" s="5">
         <v>43696</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
+        <v>338</v>
+      </c>
+      <c r="C13" t="s">
+        <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="J13" t="s">
-        <v>247</v>
+        <v>402</v>
       </c>
       <c r="K13" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L13" t="s">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="M13" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="N13" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="O13" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="P13" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="Q13" t="s">
+        <v>254</v>
+      </c>
+      <c r="R13" t="s">
+        <v>255</v>
+      </c>
+      <c r="S13" t="s">
         <v>24</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>24</v>
       </c>
-      <c r="S13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T13" t="s">
-        <v>378</v>
-      </c>
       <c r="U13" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="V13" t="s">
-        <v>257</v>
-      </c>
-      <c r="W13" s="5">
+        <v>344</v>
+      </c>
+      <c r="W13" t="s">
+        <v>244</v>
+      </c>
+      <c r="X13" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y13" s="5">
         <v>43728</v>
       </c>
     </row>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="9705" windowHeight="6195" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18915" windowHeight="6945" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,12 @@
     <sheet name="EmergencyContact" sheetId="4" r:id="rId4"/>
     <sheet name="TravelInfo" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:H19"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="403">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -84,9 +83,6 @@
     <t>Benin</t>
   </si>
   <si>
-    <t xml:space="preserve">Bhutan </t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -837,9 +833,6 @@
     <t>BGD76334</t>
   </si>
   <si>
-    <t xml:space="preserve"> visit Familly</t>
-  </si>
-  <si>
     <t>1 Buena Vista Plaza, Tamale</t>
   </si>
   <si>
@@ -1116,24 +1109,9 @@
     <t xml:space="preserve">Adjoa     </t>
   </si>
   <si>
-    <t xml:space="preserve">  Allotey</t>
-  </si>
-  <si>
     <t>Amankwah</t>
   </si>
   <si>
-    <t xml:space="preserve"> Amartey</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amihere</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amissah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ammah</t>
-  </si>
-  <si>
     <t>Amoah</t>
   </si>
   <si>
@@ -1143,9 +1121,6 @@
     <t>Amodako</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ampofo</t>
-  </si>
-  <si>
     <t>Abeasi</t>
   </si>
   <si>
@@ -1234,6 +1209,24 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Allotey</t>
+  </si>
+  <si>
+    <t>Amartey</t>
+  </si>
+  <si>
+    <t>Amihere</t>
+  </si>
+  <si>
+    <t>Amissah</t>
+  </si>
+  <si>
+    <t>Ammah</t>
+  </si>
+  <si>
+    <t>Ampofo</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1650,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>9856236556</v>
@@ -1666,7 +1659,7 @@
         <v>34743</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>7854564123</v>
@@ -1689,7 +1682,7 @@
         <v>34510</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>7896541230</v>
@@ -1712,7 +1705,7 @@
         <v>32217</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1726,7 +1719,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>8596321470</v>
@@ -1735,7 +1728,7 @@
         <v>32726</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,10 +1739,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>8659823147</v>
@@ -1758,7 +1751,7 @@
         <v>35934</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,10 +1762,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>8574963210</v>
@@ -1781,7 +1774,7 @@
         <v>33570</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,10 +1785,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>8423659851</v>
@@ -1804,7 +1797,7 @@
         <v>36132</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,10 +1808,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>8745963210</v>
@@ -1827,7 +1820,7 @@
         <v>36655</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,10 +1831,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>8236597401</v>
@@ -1850,7 +1843,7 @@
         <v>36296</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,10 +1854,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>8523697410</v>
@@ -1873,7 +1866,7 @@
         <v>35296</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>8352142698</v>
@@ -1896,10 +1889,13 @@
         <v>35713</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1907,7 +1903,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>8562323658</v>
@@ -1916,7 +1912,7 @@
         <v>36026</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1962,57 +1958,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10">
         <v>666141001</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3">
         <v>42141</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3">
         <v>44816</v>
@@ -2020,28 +2016,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="10">
         <v>666141002</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="3">
         <v>39241</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3">
         <v>44537</v>
@@ -2049,28 +2045,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10">
         <v>666141003</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="3">
         <v>38937</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="3">
         <v>45757</v>
@@ -2078,28 +2074,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="10">
         <v>666141004</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="3">
         <v>38584</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3">
         <v>44380</v>
@@ -2107,28 +2103,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="10">
         <v>666141005</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3">
         <v>40581</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3">
         <v>44868</v>
@@ -2136,28 +2132,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10">
         <v>666141006</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3">
         <v>37707</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3">
         <v>46667</v>
@@ -2165,28 +2161,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="10">
         <v>666141007</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3">
         <v>38787</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="3">
         <v>46647</v>
@@ -2194,28 +2190,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="10">
         <v>666141008</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3">
         <v>39158</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3">
         <v>46750</v>
@@ -2223,28 +2219,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="10">
         <v>666141009</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3">
         <v>37122</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="3">
         <v>44242</v>
@@ -2252,28 +2248,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="10">
         <v>666141010</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3">
         <v>37278</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3">
         <v>45402</v>
@@ -2281,28 +2277,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="10">
         <v>666141011</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3">
         <v>42411</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3">
         <v>45271</v>
@@ -2310,28 +2306,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="10">
         <v>666141012</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3">
         <v>37278</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3">
         <v>47339</v>
@@ -2352,7 +2348,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,46 +2366,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2417,31 +2413,31 @@
         <v>30001</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>9856236556</v>
       </c>
       <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
         <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -2450,10 +2446,10 @@
         <v>400051</v>
       </c>
       <c r="M2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
         <v>107</v>
-      </c>
-      <c r="N2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2461,31 +2457,31 @@
         <v>30002</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>7854564123</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -2494,10 +2490,10 @@
         <v>401234</v>
       </c>
       <c r="M3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" t="s">
         <v>107</v>
-      </c>
-      <c r="N3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2505,31 +2501,31 @@
         <v>30003</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>7896541230</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -2538,10 +2534,10 @@
         <v>407564</v>
       </c>
       <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
         <v>107</v>
-      </c>
-      <c r="N4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2549,31 +2545,31 @@
         <v>30004</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>8596321470</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -2582,10 +2578,10 @@
         <v>404563</v>
       </c>
       <c r="M5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
         <v>107</v>
-      </c>
-      <c r="N5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2593,31 +2589,31 @@
         <v>30005</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>8659823147</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
@@ -2626,10 +2622,10 @@
         <v>400058</v>
       </c>
       <c r="M6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s">
         <v>107</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2637,31 +2633,31 @@
         <v>30006</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>8574963210</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -2670,10 +2666,10 @@
         <v>400851</v>
       </c>
       <c r="M7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" t="s">
         <v>107</v>
-      </c>
-      <c r="N7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2681,31 +2677,31 @@
         <v>30007</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>8423659851</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
@@ -2714,10 +2710,10 @@
         <v>406551</v>
       </c>
       <c r="M8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
-      </c>
-      <c r="N8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2725,31 +2721,31 @@
         <v>30008</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>8745963210</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
@@ -2758,10 +2754,10 @@
         <v>400832</v>
       </c>
       <c r="M9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2769,31 +2765,31 @@
         <v>30009</v>
       </c>
       <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
         <v>123</v>
       </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>8236597401</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
@@ -2802,10 +2798,10 @@
         <v>405891</v>
       </c>
       <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
-      </c>
-      <c r="N10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2813,31 +2809,31 @@
         <v>30010</v>
       </c>
       <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>8523697410</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
@@ -2846,10 +2842,10 @@
         <v>496051</v>
       </c>
       <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s">
         <v>107</v>
-      </c>
-      <c r="N11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2857,31 +2853,31 @@
         <v>30011</v>
       </c>
       <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
         <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>8352142698</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
@@ -2890,10 +2886,10 @@
         <v>408651</v>
       </c>
       <c r="M12" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" t="s">
         <v>107</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2901,31 +2897,31 @@
         <v>30012</v>
       </c>
       <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
         <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>8562323658</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
@@ -2934,10 +2930,10 @@
         <v>407391</v>
       </c>
       <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
         <v>107</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2981,49 +2977,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>149</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="L1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3031,10 +3027,10 @@
         <v>30001</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="8">
         <v>9958474648</v>
@@ -3043,31 +3039,31 @@
         <v>9779900918</v>
       </c>
       <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
         <v>155</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>156</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>157</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>158</v>
-      </c>
-      <c r="J2" t="s">
-        <v>159</v>
       </c>
       <c r="K2" s="7">
         <v>110027</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" s="9">
         <v>43527</v>
@@ -3078,10 +3074,10 @@
         <v>30002</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <v>9983066655</v>
@@ -3090,31 +3086,31 @@
         <v>9920339880</v>
       </c>
       <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
         <v>161</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>162</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>163</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>164</v>
-      </c>
-      <c r="J3" t="s">
-        <v>165</v>
       </c>
       <c r="K3" s="7">
         <v>110028</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3" s="9">
         <v>43667</v>
@@ -3125,10 +3121,10 @@
         <v>30003</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>9351555617</v>
@@ -3137,31 +3133,31 @@
         <v>9820325424</v>
       </c>
       <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
         <v>167</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>168</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>169</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>170</v>
-      </c>
-      <c r="J4" t="s">
-        <v>171</v>
       </c>
       <c r="K4" s="7">
         <v>110029</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="9">
         <v>43539</v>
@@ -3172,10 +3168,10 @@
         <v>30004</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>9408108155</v>
@@ -3184,31 +3180,31 @@
         <v>9314406878</v>
       </c>
       <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" t="s">
         <v>173</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>174</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>175</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>176</v>
-      </c>
-      <c r="J5" t="s">
-        <v>177</v>
       </c>
       <c r="K5" s="7">
         <v>110030</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O5" s="9">
         <v>43712</v>
@@ -3219,10 +3215,10 @@
         <v>30005</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6">
         <v>9829439781</v>
@@ -3231,31 +3227,31 @@
         <v>9352628478</v>
       </c>
       <c r="F6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
         <v>179</v>
       </c>
-      <c r="G6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>180</v>
-      </c>
-      <c r="J6" t="s">
-        <v>181</v>
       </c>
       <c r="K6" s="7">
         <v>110031</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" s="9">
         <v>43635</v>
@@ -3266,10 +3262,10 @@
         <v>30006</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>9829041206</v>
@@ -3278,31 +3274,31 @@
         <v>8885586288</v>
       </c>
       <c r="F7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" t="s">
         <v>183</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>184</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>185</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>186</v>
-      </c>
-      <c r="J7" t="s">
-        <v>187</v>
       </c>
       <c r="K7" s="7">
         <v>110032</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O7" s="9">
         <v>43599</v>
@@ -3313,10 +3309,10 @@
         <v>30007</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>9810001412</v>
@@ -3325,31 +3321,31 @@
         <v>9214555405</v>
       </c>
       <c r="F8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" t="s">
         <v>189</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>190</v>
       </c>
-      <c r="H8" t="s">
-        <v>191</v>
-      </c>
       <c r="I8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" t="s">
         <v>180</v>
-      </c>
-      <c r="J8" t="s">
-        <v>181</v>
       </c>
       <c r="K8" s="7">
         <v>110033</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" s="9">
         <v>43676</v>
@@ -3360,10 +3356,10 @@
         <v>30008</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>9810925170</v>
@@ -3372,31 +3368,31 @@
         <v>9828046461</v>
       </c>
       <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
         <v>193</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>194</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>195</v>
       </c>
-      <c r="I9" t="s">
-        <v>196</v>
-      </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7">
         <v>110034</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="9">
         <v>43550</v>
@@ -3407,10 +3403,10 @@
         <v>30009</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>9910019454</v>
@@ -3419,31 +3415,31 @@
         <v>9198168727</v>
       </c>
       <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" t="s">
         <v>198</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>199</v>
       </c>
-      <c r="H10" t="s">
-        <v>200</v>
-      </c>
       <c r="I10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7">
         <v>110035</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O10" s="9">
         <v>43546</v>
@@ -3454,10 +3450,10 @@
         <v>30010</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11">
         <v>9820780846</v>
@@ -3466,31 +3462,31 @@
         <v>9891451786</v>
       </c>
       <c r="F11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" t="s">
         <v>202</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>203</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>204</v>
       </c>
-      <c r="I11" t="s">
-        <v>205</v>
-      </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7">
         <v>110036</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O11" s="9">
         <v>43662</v>
@@ -3501,10 +3497,10 @@
         <v>30011</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>8130191228</v>
@@ -3513,31 +3509,31 @@
         <v>9869045207</v>
       </c>
       <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" t="s">
         <v>207</v>
       </c>
-      <c r="G12" t="s">
-        <v>208</v>
-      </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K12" s="7">
         <v>110037</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" s="9">
         <v>43685</v>
@@ -3548,10 +3544,10 @@
         <v>30012</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>9967211333</v>
@@ -3560,31 +3556,31 @@
         <v>9313618617</v>
       </c>
       <c r="F13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" t="s">
         <v>210</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>211</v>
       </c>
-      <c r="H13" t="s">
-        <v>212</v>
-      </c>
       <c r="I13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7">
         <v>110038</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O13" s="9">
         <v>43470</v>
@@ -3601,7 +3597,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,79 +3609,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
       <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>215</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" t="s">
         <v>216</v>
       </c>
-      <c r="G1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>217</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>218</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>219</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>220</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>221</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>223</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>224</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>225</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>226</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>227</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>228</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>229</v>
       </c>
-      <c r="X1" t="s">
-        <v>230</v>
-      </c>
       <c r="Y1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -3693,73 +3689,73 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" t="s">
         <v>231</v>
       </c>
-      <c r="C2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2" t="s">
         <v>234</v>
       </c>
-      <c r="G2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" t="s">
         <v>235</v>
       </c>
-      <c r="L2" t="s">
-        <v>235</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>236</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>237</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>238</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>240</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
         <v>241</v>
       </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>242</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>243</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>244</v>
-      </c>
-      <c r="X2" t="s">
-        <v>245</v>
       </c>
       <c r="Y2" s="5">
         <v>43572</v>
@@ -3770,73 +3766,73 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" t="s">
         <v>246</v>
       </c>
-      <c r="C3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>247</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>248</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" t="s">
         <v>249</v>
       </c>
-      <c r="G3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H3" t="s">
-        <v>366</v>
-      </c>
-      <c r="I3" t="s">
-        <v>380</v>
-      </c>
-      <c r="J3" t="s">
-        <v>392</v>
-      </c>
-      <c r="K3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>250</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>251</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>252</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>254</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" t="s">
         <v>255</v>
       </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>256</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>257</v>
       </c>
-      <c r="W3" t="s">
-        <v>258</v>
-      </c>
       <c r="X3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y3" s="5">
         <v>43573</v>
@@ -3847,73 +3843,73 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" t="s">
         <v>259</v>
       </c>
-      <c r="C4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>260</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M4" t="s">
         <v>261</v>
       </c>
-      <c r="F4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" t="s">
-        <v>355</v>
-      </c>
-      <c r="H4" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J4" t="s">
-        <v>393</v>
-      </c>
-      <c r="K4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>262</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>263</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>264</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>265</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>266</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="s">
         <v>267</v>
       </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>268</v>
       </c>
-      <c r="V4" t="s">
-        <v>269</v>
-      </c>
       <c r="W4" t="s">
+        <v>243</v>
+      </c>
+      <c r="X4" t="s">
         <v>244</v>
-      </c>
-      <c r="X4" t="s">
-        <v>245</v>
       </c>
       <c r="Y4" s="5">
         <v>43574</v>
@@ -3924,73 +3920,73 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
         <v>270</v>
       </c>
-      <c r="C5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M5" t="s">
         <v>271</v>
       </c>
-      <c r="E5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="N5" t="s">
         <v>272</v>
       </c>
-      <c r="G5" t="s">
-        <v>356</v>
-      </c>
-      <c r="H5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J5" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" t="s">
-        <v>235</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>273</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>274</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
+        <v>240</v>
+      </c>
+      <c r="R5" t="s">
         <v>275</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" t="s">
-        <v>241</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>277</v>
       </c>
-      <c r="S5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" t="s">
-        <v>278</v>
-      </c>
-      <c r="V5" t="s">
-        <v>279</v>
-      </c>
       <c r="W5" t="s">
+        <v>243</v>
+      </c>
+      <c r="X5" t="s">
         <v>244</v>
-      </c>
-      <c r="X5" t="s">
-        <v>245</v>
       </c>
       <c r="Y5" s="5">
         <v>43575</v>
@@ -4001,73 +3997,73 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I6" t="s">
+        <v>375</v>
+      </c>
+      <c r="J6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M6" t="s">
         <v>280</v>
       </c>
-      <c r="C6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="N6" t="s">
         <v>281</v>
       </c>
-      <c r="E6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J6" t="s">
-        <v>395</v>
-      </c>
-      <c r="K6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L6" t="s">
-        <v>235</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>282</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>283</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
+        <v>254</v>
+      </c>
+      <c r="R6" t="s">
         <v>284</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" t="s">
         <v>285</v>
       </c>
-      <c r="Q6" t="s">
-        <v>255</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>286</v>
       </c>
-      <c r="S6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" t="s">
-        <v>287</v>
-      </c>
-      <c r="V6" t="s">
-        <v>288</v>
-      </c>
       <c r="W6" t="s">
+        <v>243</v>
+      </c>
+      <c r="X6" t="s">
         <v>244</v>
-      </c>
-      <c r="X6" t="s">
-        <v>245</v>
       </c>
       <c r="Y6" s="5">
         <v>43576</v>
@@ -4078,73 +4074,73 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" t="s">
         <v>289</v>
       </c>
-      <c r="C7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="N7" t="s">
         <v>290</v>
       </c>
-      <c r="E7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I7" t="s">
-        <v>384</v>
-      </c>
-      <c r="J7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>291</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>292</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
+        <v>266</v>
+      </c>
+      <c r="R7" t="s">
         <v>293</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" t="s">
         <v>294</v>
       </c>
-      <c r="Q7" t="s">
-        <v>267</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>295</v>
       </c>
-      <c r="S7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" t="s">
-        <v>296</v>
-      </c>
-      <c r="V7" t="s">
-        <v>297</v>
-      </c>
       <c r="W7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X7" t="s">
         <v>244</v>
-      </c>
-      <c r="X7" t="s">
-        <v>245</v>
       </c>
       <c r="Y7" s="5">
         <v>43577</v>
@@ -4155,73 +4151,73 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J8" t="s">
+        <v>389</v>
+      </c>
+      <c r="K8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" t="s">
         <v>298</v>
       </c>
-      <c r="C8" t="s">
-        <v>404</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="N8" t="s">
         <v>299</v>
       </c>
-      <c r="E8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" t="s">
-        <v>385</v>
-      </c>
-      <c r="J8" t="s">
-        <v>397</v>
-      </c>
-      <c r="K8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" t="s">
-        <v>235</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>300</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>301</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
+        <v>275</v>
+      </c>
+      <c r="R8" t="s">
         <v>302</v>
       </c>
-      <c r="P8" t="s">
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" t="s">
         <v>303</v>
       </c>
-      <c r="Q8" t="s">
-        <v>277</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>304</v>
       </c>
-      <c r="S8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" t="s">
-        <v>305</v>
-      </c>
-      <c r="V8" t="s">
-        <v>306</v>
-      </c>
       <c r="W8" t="s">
+        <v>243</v>
+      </c>
+      <c r="X8" t="s">
         <v>244</v>
-      </c>
-      <c r="X8" t="s">
-        <v>245</v>
       </c>
       <c r="Y8" s="5">
         <v>43578</v>
@@ -4232,73 +4228,73 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" t="s">
+        <v>365</v>
+      </c>
+      <c r="I9" t="s">
+        <v>378</v>
+      </c>
+      <c r="J9" t="s">
+        <v>390</v>
+      </c>
+      <c r="K9" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" t="s">
         <v>307</v>
       </c>
-      <c r="C9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="N9" t="s">
         <v>308</v>
       </c>
-      <c r="E9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" t="s">
-        <v>360</v>
-      </c>
-      <c r="H9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I9" t="s">
-        <v>386</v>
-      </c>
-      <c r="J9" t="s">
-        <v>398</v>
-      </c>
-      <c r="K9" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>309</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>310</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
+        <v>284</v>
+      </c>
+      <c r="R9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
         <v>311</v>
       </c>
-      <c r="P9" t="s">
+      <c r="V9" t="s">
         <v>312</v>
       </c>
-      <c r="Q9" t="s">
-        <v>286</v>
-      </c>
-      <c r="R9" t="s">
-        <v>240</v>
-      </c>
-      <c r="S9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" t="s">
-        <v>313</v>
-      </c>
-      <c r="V9" t="s">
-        <v>314</v>
-      </c>
       <c r="W9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X9" t="s">
         <v>244</v>
-      </c>
-      <c r="X9" t="s">
-        <v>245</v>
       </c>
       <c r="Y9" s="5">
         <v>43600</v>
@@ -4309,73 +4305,73 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I10" t="s">
+        <v>379</v>
+      </c>
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="K10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L10" t="s">
+        <v>234</v>
+      </c>
+      <c r="M10" t="s">
         <v>315</v>
       </c>
-      <c r="C10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="N10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" t="s">
-        <v>361</v>
-      </c>
-      <c r="H10" t="s">
-        <v>373</v>
-      </c>
-      <c r="I10" t="s">
-        <v>387</v>
-      </c>
-      <c r="J10" t="s">
-        <v>399</v>
-      </c>
-      <c r="K10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" t="s">
-        <v>235</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>317</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>318</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
+        <v>293</v>
+      </c>
+      <c r="R10" t="s">
+        <v>253</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" t="s">
+        <v>256</v>
+      </c>
+      <c r="V10" t="s">
         <v>319</v>
       </c>
-      <c r="P10" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>295</v>
-      </c>
-      <c r="R10" t="s">
-        <v>254</v>
-      </c>
-      <c r="S10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" t="s">
-        <v>257</v>
-      </c>
-      <c r="V10" t="s">
-        <v>321</v>
-      </c>
       <c r="W10" t="s">
+        <v>243</v>
+      </c>
+      <c r="X10" t="s">
         <v>244</v>
-      </c>
-      <c r="X10" t="s">
-        <v>245</v>
       </c>
       <c r="Y10" s="5">
         <v>43632</v>
@@ -4386,73 +4382,73 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" t="s">
+        <v>402</v>
+      </c>
+      <c r="I11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J11" t="s">
+        <v>392</v>
+      </c>
+      <c r="K11" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" t="s">
         <v>322</v>
       </c>
-      <c r="C11" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="N11" t="s">
         <v>323</v>
       </c>
-      <c r="E11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" t="s">
-        <v>362</v>
-      </c>
-      <c r="H11" t="s">
-        <v>374</v>
-      </c>
-      <c r="I11" t="s">
-        <v>388</v>
-      </c>
-      <c r="J11" t="s">
-        <v>400</v>
-      </c>
-      <c r="K11" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>324</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>325</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
+        <v>302</v>
+      </c>
+      <c r="R11" t="s">
+        <v>265</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" t="s">
         <v>326</v>
       </c>
-      <c r="P11" t="s">
+      <c r="V11" t="s">
         <v>327</v>
       </c>
-      <c r="Q11" t="s">
-        <v>304</v>
-      </c>
-      <c r="R11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V11" t="s">
-        <v>329</v>
-      </c>
       <c r="W11" t="s">
+        <v>243</v>
+      </c>
+      <c r="X11" t="s">
         <v>244</v>
-      </c>
-      <c r="X11" t="s">
-        <v>245</v>
       </c>
       <c r="Y11" s="5">
         <v>43664</v>
@@ -4463,73 +4459,73 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" t="s">
+        <v>361</v>
+      </c>
+      <c r="H12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I12" t="s">
+        <v>381</v>
+      </c>
+      <c r="J12" t="s">
+        <v>393</v>
+      </c>
+      <c r="K12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" t="s">
         <v>330</v>
       </c>
-      <c r="C12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="N12" t="s">
         <v>331</v>
       </c>
-      <c r="E12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" t="s">
-        <v>363</v>
-      </c>
-      <c r="H12" t="s">
-        <v>375</v>
-      </c>
-      <c r="I12" t="s">
-        <v>389</v>
-      </c>
-      <c r="J12" t="s">
-        <v>401</v>
-      </c>
-      <c r="K12" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" t="s">
-        <v>235</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>332</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>333</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
+        <v>239</v>
+      </c>
+      <c r="R12" t="s">
+        <v>240</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" t="s">
         <v>334</v>
       </c>
-      <c r="P12" t="s">
+      <c r="V12" t="s">
         <v>335</v>
       </c>
-      <c r="Q12" t="s">
-        <v>240</v>
-      </c>
-      <c r="R12" t="s">
-        <v>241</v>
-      </c>
-      <c r="S12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" t="s">
-        <v>336</v>
-      </c>
-      <c r="V12" t="s">
-        <v>337</v>
-      </c>
       <c r="W12" t="s">
+        <v>243</v>
+      </c>
+      <c r="X12" t="s">
         <v>244</v>
-      </c>
-      <c r="X12" t="s">
-        <v>245</v>
       </c>
       <c r="Y12" s="5">
         <v>43696</v>
@@ -4540,73 +4536,73 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" t="s">
         <v>338</v>
       </c>
-      <c r="C13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
+        <v>362</v>
+      </c>
+      <c r="H13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" t="s">
+        <v>382</v>
+      </c>
+      <c r="J13" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" t="s">
         <v>339</v>
       </c>
-      <c r="E13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="O13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
-        <v>364</v>
-      </c>
-      <c r="H13" t="s">
-        <v>376</v>
-      </c>
-      <c r="I13" t="s">
-        <v>390</v>
-      </c>
-      <c r="J13" t="s">
-        <v>402</v>
-      </c>
-      <c r="K13" t="s">
-        <v>235</v>
-      </c>
-      <c r="L13" t="s">
-        <v>235</v>
-      </c>
-      <c r="M13" t="s">
-        <v>237</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>341</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>253</v>
+      </c>
+      <c r="R13" t="s">
+        <v>254</v>
+      </c>
+      <c r="S13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" t="s">
+        <v>303</v>
+      </c>
+      <c r="V13" t="s">
         <v>342</v>
       </c>
-      <c r="P13" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>254</v>
-      </c>
-      <c r="R13" t="s">
-        <v>255</v>
-      </c>
-      <c r="S13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" t="s">
-        <v>305</v>
-      </c>
-      <c r="V13" t="s">
-        <v>344</v>
-      </c>
       <c r="W13" t="s">
+        <v>243</v>
+      </c>
+      <c r="X13" t="s">
         <v>244</v>
-      </c>
-      <c r="X13" t="s">
-        <v>245</v>
       </c>
       <c r="Y13" s="5">
         <v>43728</v>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -1233,11 +1233,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="168" formatCode="ddmmyyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1286,10 +1287,8 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1297,6 +1296,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1602,7 +1603,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1613,7 @@
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" customWidth="1"/>
     <col min="7" max="7" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1632,7 +1633,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1655,10 +1656,10 @@
       <c r="E2">
         <v>9856236556</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>34743</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1678,10 +1679,10 @@
       <c r="E3">
         <v>7854564123</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>34510</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1701,10 +1702,10 @@
       <c r="E4">
         <v>7896541230</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <v>32217</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1724,10 +1725,10 @@
       <c r="E5">
         <v>8596321470</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="10">
         <v>32726</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1747,10 +1748,10 @@
       <c r="E6">
         <v>8659823147</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <v>35934</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1770,10 +1771,10 @@
       <c r="E7">
         <v>8574963210</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>33570</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1793,10 +1794,10 @@
       <c r="E8">
         <v>8423659851</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="10">
         <v>36132</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1816,10 +1817,10 @@
       <c r="E9">
         <v>8745963210</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="10">
         <v>36655</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1839,10 +1840,10 @@
       <c r="E10">
         <v>8236597401</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="10">
         <v>36296</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1862,10 +1863,10 @@
       <c r="E11">
         <v>8523697410</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <v>35296</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1885,10 +1886,10 @@
       <c r="E12">
         <v>8352142698</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="10">
         <v>35713</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1908,10 +1909,10 @@
       <c r="E13">
         <v>8562323658</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="10">
         <v>36026</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1940,7 +1941,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,9 +1950,9 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
@@ -1969,19 +1970,19 @@
       <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>343</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1998,19 +1999,19 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>666141001</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="10">
         <v>42141</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>44816</v>
       </c>
     </row>
@@ -2027,19 +2028,19 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>666141002</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="10">
         <v>39241</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>44537</v>
       </c>
     </row>
@@ -2056,19 +2057,19 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>666141003</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="10">
         <v>38937</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>45757</v>
       </c>
     </row>
@@ -2085,19 +2086,19 @@
       <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>666141004</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="10">
         <v>38584</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>44380</v>
       </c>
     </row>
@@ -2114,19 +2115,19 @@
       <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>666141005</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="10">
         <v>40581</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>44868</v>
       </c>
     </row>
@@ -2143,19 +2144,19 @@
       <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>666141006</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="10">
         <v>37707</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>46667</v>
       </c>
     </row>
@@ -2172,19 +2173,19 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>666141007</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="10">
         <v>38787</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>46647</v>
       </c>
     </row>
@@ -2201,19 +2202,19 @@
       <c r="D9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>666141008</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="10">
         <v>39158</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>46750</v>
       </c>
     </row>
@@ -2230,19 +2231,19 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>666141009</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="10">
         <v>37122</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>44242</v>
       </c>
     </row>
@@ -2259,19 +2260,19 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>666141010</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="10">
         <v>37278</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>45402</v>
       </c>
     </row>
@@ -2288,19 +2289,19 @@
       <c r="D12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>666141011</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="10">
         <v>42411</v>
       </c>
       <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>45271</v>
       </c>
     </row>
@@ -2317,25 +2318,24 @@
       <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>666141012</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="10">
         <v>37278</v>
       </c>
       <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>47339</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G14"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2421,7 +2421,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2">
@@ -2465,7 +2465,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F3">
@@ -2509,7 +2509,7 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4">
@@ -2553,7 +2553,7 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F5">
@@ -2597,7 +2597,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F6">
@@ -2641,7 +2641,7 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F7">
@@ -2685,7 +2685,7 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F8">
@@ -2729,7 +2729,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F9">
@@ -2773,7 +2773,7 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F10">
@@ -2817,7 +2817,7 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F11">
@@ -2861,7 +2861,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F12">
@@ -2905,7 +2905,7 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F13">
@@ -2970,9 +2970,9 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
       <c r="D1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>147</v>
       </c>
       <c r="F1" t="s">
@@ -3006,7 +3006,7 @@
       <c r="J1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L1" t="s">
@@ -3018,7 +3018,7 @@
       <c r="N1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3032,10 +3032,10 @@
       <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>9958474648</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>9779900918</v>
       </c>
       <c r="F2" t="s">
@@ -3053,7 +3053,7 @@
       <c r="J2" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>110027</v>
       </c>
       <c r="L2" t="s">
@@ -3065,7 +3065,7 @@
       <c r="N2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7">
         <v>43527</v>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       <c r="D3">
         <v>9983066655</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>9920339880</v>
       </c>
       <c r="F3" t="s">
@@ -3100,7 +3100,7 @@
       <c r="J3" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>110028</v>
       </c>
       <c r="L3" t="s">
@@ -3112,7 +3112,7 @@
       <c r="N3" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <v>43667</v>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       <c r="D4">
         <v>9351555617</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>9820325424</v>
       </c>
       <c r="F4" t="s">
@@ -3147,7 +3147,7 @@
       <c r="J4" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>110029</v>
       </c>
       <c r="L4" t="s">
@@ -3159,7 +3159,7 @@
       <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <v>43539</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       <c r="D5">
         <v>9408108155</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>9314406878</v>
       </c>
       <c r="F5" t="s">
@@ -3194,7 +3194,7 @@
       <c r="J5" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>110030</v>
       </c>
       <c r="L5" t="s">
@@ -3206,7 +3206,7 @@
       <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>43712</v>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       <c r="D6">
         <v>9829439781</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>9352628478</v>
       </c>
       <c r="F6" t="s">
@@ -3241,7 +3241,7 @@
       <c r="J6" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>110031</v>
       </c>
       <c r="L6" t="s">
@@ -3253,7 +3253,7 @@
       <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="7">
         <v>43635</v>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
       <c r="D7">
         <v>9829041206</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>8885586288</v>
       </c>
       <c r="F7" t="s">
@@ -3288,7 +3288,7 @@
       <c r="J7" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>110032</v>
       </c>
       <c r="L7" t="s">
@@ -3300,7 +3300,7 @@
       <c r="N7" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="7">
         <v>43599</v>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       <c r="D8">
         <v>9810001412</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>9214555405</v>
       </c>
       <c r="F8" t="s">
@@ -3335,7 +3335,7 @@
       <c r="J8" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>110033</v>
       </c>
       <c r="L8" t="s">
@@ -3347,7 +3347,7 @@
       <c r="N8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <v>43676</v>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       <c r="D9">
         <v>9810925170</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>9828046461</v>
       </c>
       <c r="F9" t="s">
@@ -3382,7 +3382,7 @@
       <c r="J9" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>110034</v>
       </c>
       <c r="L9" t="s">
@@ -3394,7 +3394,7 @@
       <c r="N9" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="7">
         <v>43550</v>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       <c r="D10">
         <v>9910019454</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>9198168727</v>
       </c>
       <c r="F10" t="s">
@@ -3429,7 +3429,7 @@
       <c r="J10" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>110035</v>
       </c>
       <c r="L10" t="s">
@@ -3441,7 +3441,7 @@
       <c r="N10" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="7">
         <v>43546</v>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       <c r="D11">
         <v>9820780846</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>9891451786</v>
       </c>
       <c r="F11" t="s">
@@ -3476,7 +3476,7 @@
       <c r="J11" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>110036</v>
       </c>
       <c r="L11" t="s">
@@ -3488,7 +3488,7 @@
       <c r="N11" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <v>43662</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       <c r="D12">
         <v>8130191228</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>9869045207</v>
       </c>
       <c r="F12" t="s">
@@ -3523,7 +3523,7 @@
       <c r="J12" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>110037</v>
       </c>
       <c r="L12" t="s">
@@ -3535,7 +3535,7 @@
       <c r="N12" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>43685</v>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       <c r="D13">
         <v>9967211333</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>9313618617</v>
       </c>
       <c r="F13" t="s">
@@ -3570,7 +3570,7 @@
       <c r="J13" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>110038</v>
       </c>
       <c r="L13" t="s">
@@ -3582,7 +3582,7 @@
       <c r="N13" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="7">
         <v>43470</v>
       </c>
     </row>
@@ -3596,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,6 +3605,7 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -3680,7 +3681,7 @@
       <c r="X1" t="s">
         <v>229</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3757,7 +3758,7 @@
       <c r="X2" t="s">
         <v>244</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="10">
         <v>43572</v>
       </c>
     </row>
@@ -3834,7 +3835,7 @@
       <c r="X3" t="s">
         <v>244</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="10">
         <v>43573</v>
       </c>
     </row>
@@ -3911,7 +3912,7 @@
       <c r="X4" t="s">
         <v>244</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="10">
         <v>43574</v>
       </c>
     </row>
@@ -3988,7 +3989,7 @@
       <c r="X5" t="s">
         <v>244</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="10">
         <v>43575</v>
       </c>
     </row>
@@ -4065,7 +4066,7 @@
       <c r="X6" t="s">
         <v>244</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="10">
         <v>43576</v>
       </c>
     </row>
@@ -4142,7 +4143,7 @@
       <c r="X7" t="s">
         <v>244</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="10">
         <v>43577</v>
       </c>
     </row>
@@ -4219,7 +4220,7 @@
       <c r="X8" t="s">
         <v>244</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="10">
         <v>43578</v>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       <c r="X9" t="s">
         <v>244</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="10">
         <v>43600</v>
       </c>
     </row>
@@ -4373,7 +4374,7 @@
       <c r="X10" t="s">
         <v>244</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="10">
         <v>43632</v>
       </c>
     </row>
@@ -4450,7 +4451,7 @@
       <c r="X11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="10">
         <v>43664</v>
       </c>
     </row>
@@ -4527,7 +4528,7 @@
       <c r="X12" t="s">
         <v>244</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="10">
         <v>43696</v>
       </c>
     </row>
@@ -4604,7 +4605,7 @@
       <c r="X13" t="s">
         <v>244</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="10">
         <v>43728</v>
       </c>
     </row>
